--- a/biology/Botanique/Halophytaceae/Halophytaceae.xlsx
+++ b/biology/Botanique/Halophytaceae/Halophytaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La petite famille des Halophytaceae ou Halophytacées regroupe des plantes dicotylédones ; elle ne comprend qu'une seule espèce, Halophytum ameghinoi. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Halophytum composé du grec άλας / halas, sel, et φυτών / fyton, plante.
 </t>
@@ -542,10 +556,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille n'existe pas en classification phylogénétique APG (1998)[1] qui plaçait la plante dans les Chenopodiaceae.
-Cependant, elle est acceptée en classification phylogénétique APG II (2003)[2] et en classification phylogénétique APG III (2009)[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille n'existe pas en classification phylogénétique APG (1998) qui plaçait la plante dans les Chenopodiaceae.
+Cependant, elle est acceptée en classification phylogénétique APG II (2003) et en classification phylogénétique APG III (2009).
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (3 mai 2010)[4], NCBI  (3 mai 2010)[5] et DELTA Angio           (3 mai 2010)[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (3 mai 2010), NCBI  (3 mai 2010) et DELTA Angio           (3 mai 2010) :
 genre Halophytum (en) Speg.</t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (3 mai 2010)[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (3 mai 2010) :
 genre Halophytum (en)
 Halophytum ameghinoi</t>
         </is>
